--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>sdfbvkjvgkﾌｪkjｳｪｄｇｆｄ3wwc　仕様書</t>
     <rPh sb="25" eb="28">
@@ -550,6 +550,323 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが岩（ステージの一部のように見えてそうではない）に接触した場合</t>
+    <rPh sb="6" eb="7">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがサメ（基本的に岩と同じ。プレイヤーが近くを通ると少しだけ追跡する機能が欲しい）</t>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に接触した場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間切れ（酸素ゲージが０になる）</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらの条件が満たされた場合にデッドフラグをオンにしてください</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンティニューするかタイトルに戻るかを選択できるウィンドウを上から出す</t>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それっぽいアニメーションはもちろん欲しい</t>
+    <rPh sb="17" eb="18">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンティニュー　→　ゲームシーン開始画面に戻る</t>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルに戻る　→　タイトルに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１、タイトル画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何かしらのボタン入力でゲームシーンに移行</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２、ゲームシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが出現、スタートの号令（？）とともに酸素ゲージが減り始める</t>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゴウレイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右方向に進むよう促すステージ設計（強制スクロールも視野に入れてください）</t>
+    <rPh sb="0" eb="3">
+      <t>ミギホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが左右で迷う事態は好ましくないので、狭いステージ設計（全貌を見ると単純なアリの巣のように見える感じ）</t>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンボウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道中　岩、サメ（プレイヤーが接触して損あるいは死亡するギミック）を程よく配置</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同様にビッグコインのようなプレイヤーが接触して得するギミックを少なめに配置</t>
+    <rPh sb="0" eb="2">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３、クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前述を参照してください</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４、死亡</t>
+    <rPh sb="2" eb="4">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -890,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3773,7 +4090,9 @@
     </row>
     <row r="49" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3890,7 +4209,9 @@
     <row r="50" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4122,7 +4443,9 @@
     <row r="52" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4239,7 +4562,9 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4470,7 +4795,9 @@
     <row r="55" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4703,7 +5030,9 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -4711,7 +5040,9 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -4933,7 +5264,9 @@
     </row>
     <row r="59" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5050,7 +5383,9 @@
     <row r="60" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5283,7 +5618,9 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -5515,7 +5852,9 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -5860,7 +6199,9 @@
       <c r="DJ66" s="1"/>
     </row>
     <row r="67" spans="1:114" x14ac:dyDescent="0.4">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -5977,7 +6318,9 @@
     </row>
     <row r="68" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -6094,7 +6437,9 @@
     <row r="69" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6325,7 +6670,9 @@
     </row>
     <row r="71" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6442,7 +6789,9 @@
     <row r="72" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6674,7 +7023,9 @@
     <row r="74" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6791,7 +7142,9 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -7022,7 +7375,9 @@
     <row r="77" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -7255,7 +7610,9 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -7485,7 +7842,9 @@
     </row>
     <row r="81" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -7602,7 +7961,9 @@
     <row r="82" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -7949,7 +8310,9 @@
     </row>
     <row r="85" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -8066,7 +8429,9 @@
     <row r="86" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
